--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ricardo\paginas_web\web_apolo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D27F34-08EC-4488-858A-0055EF97E25D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB3785E-7763-43B1-9207-C94E42389EC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{6936FEF1-9CAD-4CEF-96D3-3B0D19E8F7CD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
   <si>
     <t>Tatiana</t>
   </si>
@@ -151,6 +151,21 @@
   </si>
   <si>
     <t>Verónica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fin </t>
+  </si>
+  <si>
+    <t>bantam</t>
+  </si>
+  <si>
+    <t>feder</t>
+  </si>
+  <si>
+    <t>hevi</t>
+  </si>
+  <si>
+    <t>fly</t>
   </si>
 </sst>
 </file>
@@ -505,7 +520,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,6 +561,9 @@
       <c r="D2" t="s">
         <v>21</v>
       </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
       <c r="F2" t="s">
         <v>23</v>
       </c>
@@ -563,6 +581,9 @@
       <c r="D3" t="s">
         <v>21</v>
       </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
       <c r="F3" t="s">
         <v>23</v>
       </c>
@@ -580,6 +601,9 @@
       <c r="D4" t="s">
         <v>21</v>
       </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
@@ -597,6 +621,9 @@
       <c r="D5" t="s">
         <v>22</v>
       </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
@@ -614,6 +641,9 @@
       <c r="D6" t="s">
         <v>22</v>
       </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
@@ -631,6 +661,9 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
@@ -648,6 +681,9 @@
       <c r="D8" t="s">
         <v>28</v>
       </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
       <c r="F8" t="s">
         <v>29</v>
       </c>
@@ -665,6 +701,9 @@
       <c r="D9" t="s">
         <v>28</v>
       </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
       <c r="F9" t="s">
         <v>29</v>
       </c>
@@ -682,6 +721,9 @@
       <c r="D10" t="s">
         <v>28</v>
       </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
@@ -699,6 +741,9 @@
       <c r="D11" t="s">
         <v>34</v>
       </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
       <c r="F11" t="s">
         <v>35</v>
       </c>
@@ -716,6 +761,9 @@
       <c r="D12" t="s">
         <v>34</v>
       </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
       <c r="F12" t="s">
         <v>35</v>
       </c>
@@ -733,6 +781,9 @@
       <c r="D13" t="s">
         <v>34</v>
       </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
       <c r="F13" t="s">
         <v>35</v>
       </c>
@@ -750,6 +801,9 @@
       <c r="D14" t="s">
         <v>37</v>
       </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
       <c r="F14" t="s">
         <v>38</v>
       </c>
@@ -767,6 +821,9 @@
       <c r="D15" t="s">
         <v>37</v>
       </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
       <c r="F15" t="s">
         <v>38</v>
       </c>
@@ -783,6 +840,9 @@
       </c>
       <c r="D16" t="s">
         <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
       </c>
       <c r="F16" t="s">
         <v>38</v>
